--- a/app/images/issues.xlsx
+++ b/app/images/issues.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillermo\Documents\exel\app\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy.j.solera.quiros\Documents\courses\proyectoTrabajo\app\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="El_blayan" sheetId="1" r:id="rId1"/>
+    <sheet name="El_kevin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -411,10 +411,10 @@
   <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C18"/>
+      <selection activeCell="B22" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="138.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -658,10 +658,14 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="139.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/app/images/issues.xlsx
+++ b/app/images/issues.xlsx
@@ -5,15 +5,32 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy.j.solera.quiros\Documents\courses\proyectoTrabajo\app\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillermo\Documents\proyectoTrabajo\app\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="El_blayan" sheetId="1" r:id="rId1"/>
     <sheet name="El_kevin" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja5" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja6" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja7" sheetId="9" r:id="rId9"/>
+    <sheet name="Hoja8" sheetId="10" r:id="rId10"/>
+    <sheet name="Hoja9" sheetId="11" r:id="rId11"/>
+    <sheet name="Hoja10" sheetId="12" r:id="rId12"/>
+    <sheet name="Hoja11" sheetId="13" r:id="rId13"/>
+    <sheet name="Hoja12" sheetId="14" r:id="rId14"/>
+    <sheet name="Hoja13" sheetId="15" r:id="rId15"/>
+    <sheet name="Hoja14" sheetId="16" r:id="rId16"/>
+    <sheet name="Hoja15" sheetId="17" r:id="rId17"/>
+    <sheet name="Hoja16" sheetId="18" r:id="rId18"/>
+    <sheet name="Hoja17" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="21">
   <si>
     <t xml:space="preserve">templatedata/ContentTypes/CMCOMPONENT/data/USCRS/CAENGLISH/cmpnt_acq_crc_auth_officer_income   </t>
   </si>
@@ -146,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,11 +427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B21:B22"/>
+    <sheetView topLeftCell="C11" workbookViewId="0">
+      <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="138.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -653,15 +670,135 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="139.7109375" bestFit="1" customWidth="1"/>
@@ -868,4 +1005,691 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42520</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42520</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42520</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/images/issues.xlsx
+++ b/app/images/issues.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillermo\Documents\proyectoTrabajo\app\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy.j.solera.quiros\Documents\courses\proyectoTrabajo\app\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="El_blayan" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="22">
   <si>
     <t xml:space="preserve">templatedata/ContentTypes/CMCOMPONENT/data/USCRS/CAENGLISH/cmpnt_acq_crc_auth_officer_income   </t>
   </si>
@@ -105,19 +105,46 @@
   </si>
   <si>
     <t>COMENT</t>
+  </si>
+  <si>
+    <r>
+      <t>Lorem Ipsum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,11 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,7 +191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,11 +455,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" workbookViewId="0">
-      <selection sqref="A1:C18"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="138.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -454,8 +482,8 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -465,8 +493,8 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -476,8 +504,8 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -487,8 +515,8 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,8 +526,8 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,8 +537,8 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,8 +548,8 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,8 +559,8 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,8 +570,8 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,8 +581,8 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,8 +592,8 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,8 +603,8 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,8 +614,8 @@
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,8 +625,8 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,8 +636,8 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,8 +647,8 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,8 +658,8 @@
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,7 +704,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -688,7 +716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -700,7 +728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -712,7 +740,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -724,7 +752,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -736,7 +764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -748,7 +776,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -760,7 +788,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -772,7 +800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,7 +812,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -798,7 +826,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="139.7109375" bestFit="1" customWidth="1"/>
@@ -1015,7 +1043,7 @@
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1228,7 +1256,7 @@
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1437,11 +1465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1652,7 +1680,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1664,7 +1692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1676,7 +1704,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1688,7 +1716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
